--- a/tests/testthat/validate/sample.xlsx
+++ b/tests/testthat/validate/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debruine/rproj/scienceverse/papercheck/tests/testthat/validate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8CE07E-C4A1-8C4C-BD57-BEE362EB757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CAAD59-3F02-344D-A51F-D44D8C26EB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{9E14DC60-6152-8340-A6DB-9544BB2FFF7E}"/>
   </bookViews>
@@ -28,13 +28,13 @@
     <t>traffic_light</t>
   </si>
   <si>
-    <t>to_err_is_human.xml</t>
-  </si>
-  <si>
     <t>info</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>to_err_is_human</t>
   </si>
 </sst>
 </file>
@@ -897,13 +897,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229CC188-DE7C-9140-9BE2-7D8477114D32}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -914,10 +916,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
